--- a/normativa/Anexos/L01T01C03/L01T01C03A10.xlsx
+++ b/normativa/Anexos/L01T01C03/L01T01C03A10.xlsx
@@ -145,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -222,6 +216,21 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -369,29 +378,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -403,62 +409,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,6 +483,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,7 +500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -767,10 +789,10 @@
   <dimension ref="B1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="27" width="3.7109375" style="2"/>
@@ -779,1115 +801,1114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="41" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="28" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
     </row>
     <row r="8" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="29" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="29" t="s">
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="31"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="30"/>
     </row>
     <row r="16" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="34"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="33"/>
     </row>
     <row r="17" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="37"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="36"/>
     </row>
     <row r="18" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="18"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="18"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="18"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="15"/>
     </row>
     <row r="24" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="18"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="18"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
     </row>
     <row r="26" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="18"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="18"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="15"/>
     </row>
     <row r="28" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="18"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="18"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="18"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="18"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="18"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="18"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="18"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="18"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="18"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="15"/>
     </row>
     <row r="37" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="18"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
     </row>
     <row r="38" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="18"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="15"/>
     </row>
     <row r="39" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="13"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
     </row>
     <row r="41" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
     </row>
     <row r="42" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
     </row>
     <row r="43" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
     </row>
     <row r="44" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
     </row>
     <row r="45" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="12" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -1896,21 +1917,21 @@
       <c r="U46" s="3"/>
     </row>
     <row r="47" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="12" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -1919,21 +1940,21 @@
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="10" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -1942,21 +1963,21 @@
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="10" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -1965,21 +1986,21 @@
       <c r="U49" s="3"/>
     </row>
     <row r="50" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="11" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -1988,44 +2009,44 @@
       <c r="U50" s="3"/>
     </row>
     <row r="51" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -2048,8 +2069,8 @@
   <headerFooter scaleWithDoc="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 </oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;9Circular ASFI/256/14 (08/14)    Inicial
-             ASFI/459/17 (04/17) Modificiación 1
+    <oddFooter>&amp;L&amp;"Times New Roman,Negrita"&amp;9&amp;K0000FFControl de Versiones&amp;"Times New Roman,Normal"&amp;K01+000
+Circular ASFI/256/2014 (última) 
 &amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título I
 Capítulo III
@@ -2067,7 +2088,7 @@
       <selection activeCell="A2" sqref="A2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -2100,40 +2121,40 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
     </row>
     <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2147,24 +2168,24 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -2183,18 +2204,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -3215,7 +3236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
